--- a/pays_monde/paysMondeShort.xlsx
+++ b/pays_monde/paysMondeShort.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Marc\SMS\ToutSavoir_Pop\tssp\pays_monde\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA84F02F-B0BF-4AA0-A105-EF68B30A26DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2705,9 +2706,6 @@
     <t>3,09</t>
   </si>
   <si>
-    <t>Micronésie (États fédérés de)</t>
-  </si>
-  <si>
     <t>67,5</t>
   </si>
   <si>
@@ -2747,9 +2745,6 @@
     <t>Amérique Septentrionale</t>
   </si>
   <si>
-    <t>France (métro.)</t>
-  </si>
-  <si>
     <t>St Vincent-et-les-Grenad.</t>
   </si>
   <si>
@@ -2994,12 +2989,18 @@
   </si>
   <si>
     <t>🇨🇭</t>
+  </si>
+  <si>
+    <t>France (hexa.)</t>
+  </si>
+  <si>
+    <t>Micronésie (États fédérés)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -3032,12 +3033,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3046,25 +3047,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3346,11 +3338,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3378,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>118</v>
@@ -3406,262 +3398,262 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1549867</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4">
+        <v>667889</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="5">
-        <v>667889</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="4">
+        <v>387528</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5">
-        <v>387528</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>730</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4835320</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>744399</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>875</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>46610</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8231615</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3671,33 +3663,33 @@
       <c r="E9" s="4">
         <v>74022</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3707,33 +3699,33 @@
       <c r="E10" s="4">
         <v>219525</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3743,33 +3735,33 @@
       <c r="E11" s="4">
         <v>466533</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3779,33 +3771,33 @@
       <c r="E12" s="4">
         <v>513486</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3815,33 +3807,33 @@
       <c r="E13" s="4">
         <v>276302</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3851,109 +3843,109 @@
       <c r="E14" s="4">
         <v>1549867</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E15" s="4">
         <v>64747</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E16" s="4">
         <v>2562</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3963,109 +3955,109 @@
       <c r="E17" s="4">
         <v>1256</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E18" s="4">
         <v>2363</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E19" s="4">
         <v>3093</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -4075,375 +4067,375 @@
       <c r="E20" s="4">
         <v>74022</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E21" s="4">
         <v>39040</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E22" s="4">
         <v>29879</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D23" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E23" s="4">
         <v>5513</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E24" s="4">
         <v>6484</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D25" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E25" s="4">
         <v>112832</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E26" s="4">
         <v>2593</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E27" s="4">
         <v>1938</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E28" s="4">
         <v>240</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E29" s="4">
         <v>21004</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -4453,30 +4445,30 @@
       <c r="E30" s="4">
         <v>219525</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -4486,35 +4478,35 @@
         <v>297</v>
       </c>
       <c r="D31" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E31" s="4">
         <v>14814</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4524,35 +4516,35 @@
         <v>302</v>
       </c>
       <c r="D32" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E32" s="4">
         <v>24075</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4562,35 +4554,35 @@
         <v>308</v>
       </c>
       <c r="D33" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E33" s="4">
         <v>527</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4600,35 +4592,35 @@
         <v>313</v>
       </c>
       <c r="D34" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E34" s="4">
         <v>32712</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4638,35 +4630,35 @@
         <v>318</v>
       </c>
       <c r="D35" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E35" s="4">
         <v>2822</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4676,35 +4668,35 @@
         <v>323</v>
       </c>
       <c r="D36" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E36" s="4">
         <v>35064</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -4714,35 +4706,35 @@
         <v>329</v>
       </c>
       <c r="D37" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E37" s="4">
         <v>15100</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4752,35 +4744,35 @@
         <v>333</v>
       </c>
       <c r="D38" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E38" s="4">
         <v>2250</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -4790,35 +4782,35 @@
         <v>338</v>
       </c>
       <c r="D39" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E39" s="4">
         <v>5731</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="L39" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4828,35 +4820,35 @@
         <v>344</v>
       </c>
       <c r="D40" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E40" s="4">
         <v>25199</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -4866,35 +4858,35 @@
         <v>351</v>
       </c>
       <c r="D41" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E41" s="4">
         <v>5315</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4904,35 +4896,35 @@
         <v>358</v>
       </c>
       <c r="D42" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E42" s="4">
         <v>27918</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="J42" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" s="7" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4942,35 +4934,35 @@
         <v>365</v>
       </c>
       <c r="D43" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E43" s="4">
         <v>237528</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4980,35 +4972,35 @@
         <v>369</v>
       </c>
       <c r="D44" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E44" s="4">
         <v>18932</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="L44" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -5018,35 +5010,35 @@
         <v>376</v>
       </c>
       <c r="D45" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E45" s="4">
         <v>8820</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="K45" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="L45" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -5056,35 +5048,35 @@
         <v>379</v>
       </c>
       <c r="D46" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E46" s="4">
         <v>9722</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="K46" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="L46" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -5097,30 +5089,30 @@
       <c r="E47" s="4">
         <v>466533</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -5130,7 +5122,7 @@
         <v>385</v>
       </c>
       <c r="D48" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E48" s="4">
         <v>14390</v>
@@ -5158,7 +5150,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -5168,7 +5160,7 @@
         <v>391</v>
       </c>
       <c r="D49" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E49" s="4">
         <v>883</v>
@@ -5196,7 +5188,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -5206,7 +5198,7 @@
         <v>396</v>
       </c>
       <c r="D50" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E50" s="4">
         <v>1184</v>
@@ -5234,7 +5226,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -5244,7 +5236,7 @@
         <v>402</v>
       </c>
       <c r="D51" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E51" s="4">
         <v>3607</v>
@@ -5272,7 +5264,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -5282,7 +5274,7 @@
         <v>405</v>
       </c>
       <c r="D52" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E52" s="4">
         <v>135472</v>
@@ -5310,7 +5302,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -5320,7 +5312,7 @@
         <v>410</v>
       </c>
       <c r="D53" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E53" s="4">
         <v>882</v>
@@ -5348,7 +5340,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -5358,7 +5350,7 @@
         <v>412</v>
       </c>
       <c r="D54" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E54" s="4">
         <v>57533</v>
@@ -5386,7 +5378,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -5396,7 +5388,7 @@
         <v>416</v>
       </c>
       <c r="D55" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E55" s="4">
         <v>32741</v>
@@ -5424,7 +5416,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -5434,7 +5426,7 @@
         <v>420</v>
       </c>
       <c r="D56" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E56" s="4">
         <v>22216</v>
@@ -5462,7 +5454,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -5472,7 +5464,7 @@
         <v>423</v>
       </c>
       <c r="D57" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E57" s="4">
         <v>1268</v>
@@ -5500,7 +5492,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -5510,7 +5502,7 @@
         <v>428</v>
       </c>
       <c r="D58" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E58" s="4">
         <v>337</v>
@@ -5538,7 +5530,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -5548,7 +5540,7 @@
         <v>431</v>
       </c>
       <c r="D59" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E59" s="4">
         <v>35632</v>
@@ -5576,7 +5568,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -5586,7 +5578,7 @@
         <v>435</v>
       </c>
       <c r="D60" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E60" s="4">
         <v>51385</v>
@@ -5614,7 +5606,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -5624,7 +5616,7 @@
         <v>440</v>
       </c>
       <c r="D61" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E61" s="4">
         <v>14569</v>
@@ -5652,7 +5644,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -5662,7 +5654,7 @@
         <v>445</v>
       </c>
       <c r="D62" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E62" s="4">
         <v>133</v>
@@ -5690,7 +5682,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -5700,7 +5692,7 @@
         <v>451</v>
       </c>
       <c r="D63" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E63" s="4">
         <v>19655</v>
@@ -5728,7 +5720,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -5738,7 +5730,7 @@
         <v>455</v>
       </c>
       <c r="D64" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E64" s="4">
         <v>12189</v>
@@ -5766,7 +5758,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -5776,7 +5768,7 @@
         <v>457</v>
       </c>
       <c r="D65" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E65" s="4">
         <v>70546</v>
@@ -5804,7 +5796,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -5814,7 +5806,7 @@
         <v>461</v>
       </c>
       <c r="D66" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E66" s="4">
         <v>21914</v>
@@ -5842,7 +5834,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -5852,7 +5844,7 @@
         <v>466</v>
       </c>
       <c r="D67" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E67" s="4">
         <v>16951</v>
@@ -5880,7 +5872,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -5916,7 +5908,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -5926,7 +5918,7 @@
         <v>470</v>
       </c>
       <c r="D69" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E69" s="4">
         <v>47435</v>
@@ -5954,7 +5946,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -5964,7 +5956,7 @@
         <v>477</v>
       </c>
       <c r="D70" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E70" s="4">
         <v>118366</v>
@@ -5992,7 +5984,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -6002,7 +5994,7 @@
         <v>481</v>
       </c>
       <c r="D71" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E71" s="4">
         <v>7459</v>
@@ -6030,7 +6022,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -6040,7 +6032,7 @@
         <v>484</v>
       </c>
       <c r="D72" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E72" s="4">
         <v>38431</v>
@@ -6068,7 +6060,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -6078,7 +6070,7 @@
         <v>487</v>
       </c>
       <c r="D73" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E73" s="4">
         <v>601</v>
@@ -6106,7 +6098,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -6116,7 +6108,7 @@
         <v>491</v>
       </c>
       <c r="D74" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E74" s="4">
         <v>51662</v>
@@ -6144,7 +6136,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -6154,7 +6146,7 @@
         <v>495</v>
       </c>
       <c r="D75" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E75" s="4">
         <v>12349</v>
@@ -6182,7 +6174,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -6218,10 +6210,10 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -6254,10 +6246,10 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -6290,10 +6282,10 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -6326,10 +6318,10 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -6362,10 +6354,10 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -6398,17 +6390,17 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E82" s="4">
         <v>8998</v>
@@ -6436,17 +6428,17 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D83" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E83" s="4">
         <v>6715</v>
@@ -6474,17 +6466,17 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D84" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E84" s="4">
         <v>9632</v>
@@ -6512,17 +6504,17 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>222</v>
       </c>
       <c r="D85" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E85" s="4">
         <v>2996</v>
@@ -6550,17 +6542,17 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E86" s="4">
         <v>38141</v>
@@ -6588,17 +6580,17 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D87" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E87" s="4">
         <v>18909</v>
@@ -6626,17 +6618,17 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D88" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E88" s="4">
         <v>143997</v>
@@ -6664,17 +6656,17 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>249</v>
       </c>
       <c r="D89" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E89" s="4">
         <v>5475</v>
@@ -6702,17 +6694,17 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D90" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E90" s="4">
         <v>10609</v>
@@ -6740,17 +6732,17 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D91" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E91" s="4">
         <v>38980</v>
@@ -6778,10 +6770,10 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -6814,17 +6806,17 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>265</v>
       </c>
       <c r="D93" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E93" s="4">
         <v>84075</v>
@@ -6852,17 +6844,17 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>269</v>
       </c>
       <c r="D94" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E94" s="4">
         <v>9114</v>
@@ -6890,17 +6882,17 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D95" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E95" s="4">
         <v>11759</v>
@@ -6928,17 +6920,17 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>907</v>
+        <v>988</v>
       </c>
       <c r="D96" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E96" s="4">
         <v>66651</v>
@@ -6966,17 +6958,17 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D97" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E97" s="4">
         <v>680</v>
@@ -7004,17 +6996,17 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D98" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E98" s="4">
         <v>18347</v>
@@ -7042,17 +7034,17 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>292</v>
       </c>
       <c r="D99" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E99" s="4">
         <v>8967</v>
@@ -7080,10 +7072,10 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -7116,7 +7108,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -7152,7 +7144,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -7188,7 +7180,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -7224,7 +7216,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -7260,7 +7252,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -7296,7 +7288,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -7332,7 +7324,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -7368,7 +7360,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -7404,7 +7396,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -7440,7 +7432,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -7476,7 +7468,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -7512,7 +7504,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -7548,7 +7540,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -7584,7 +7576,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -7620,7 +7612,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -7656,7 +7648,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -7692,7 +7684,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -7728,7 +7720,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -7764,7 +7756,7 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -7800,7 +7792,7 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -7836,7 +7828,7 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -7872,7 +7864,7 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -7908,7 +7900,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -7944,7 +7936,7 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -7980,7 +7972,7 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -8016,7 +8008,7 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -8052,7 +8044,7 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -8089,151 +8081,151 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="B128" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>594</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="5">
+      <c r="E128" s="4">
         <v>185161</v>
       </c>
-      <c r="F128" s="10" t="s">
+      <c r="F128" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G128" s="10" t="s">
+      <c r="G128" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H128" s="10" t="s">
+      <c r="H128" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I128" s="10" t="s">
+      <c r="I128" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J128" s="10" t="s">
+      <c r="J128" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="K128" s="10" t="s">
+      <c r="K128" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L128" s="10" t="s">
+      <c r="L128" s="1" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="B129" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D129" s="2"/>
-      <c r="E129" s="5">
+      <c r="E129" s="4">
         <v>438105</v>
       </c>
-      <c r="F129" s="10" t="s">
+      <c r="F129" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G129" s="10" t="s">
+      <c r="G129" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H129" s="10" t="s">
+      <c r="H129" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="I129" s="10" t="s">
+      <c r="I129" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J129" s="10" t="s">
+      <c r="J129" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="K129" s="10" t="s">
+      <c r="K129" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L129" s="10" t="s">
+      <c r="L129" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="B130" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>599</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="E130" s="5">
+      <c r="E130" s="4">
         <v>44622</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="F130" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="G130" s="10" t="s">
+      <c r="G130" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H130" s="10" t="s">
+      <c r="H130" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="I130" s="10" t="s">
+      <c r="I130" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J130" s="10" t="s">
+      <c r="J130" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="K130" s="10" t="s">
+      <c r="K130" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L130" s="10" t="s">
+      <c r="L130" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="B131" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D131" s="2"/>
-      <c r="E131" s="5">
+      <c r="E131" s="4">
         <v>667889</v>
       </c>
-      <c r="F131" s="10" t="s">
+      <c r="F131" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G131" s="10" t="s">
+      <c r="G131" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H131" s="10" t="s">
+      <c r="H131" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I131" s="10" t="s">
+      <c r="I131" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J131" s="10" t="s">
+      <c r="J131" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K131" s="10" t="s">
+      <c r="K131" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L131" s="10" t="s">
+      <c r="L131" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>594</v>
@@ -8269,7 +8261,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>594</v>
@@ -8305,7 +8297,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>594</v>
@@ -8341,7 +8333,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>594</v>
@@ -8377,7 +8369,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>594</v>
@@ -8413,7 +8405,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>594</v>
@@ -8449,7 +8441,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>594</v>
@@ -8485,7 +8477,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>594</v>
@@ -8521,7 +8513,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>594</v>
@@ -8557,7 +8549,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>596</v>
@@ -8593,7 +8585,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>596</v>
@@ -8629,7 +8621,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>596</v>
@@ -8665,7 +8657,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>596</v>
@@ -8701,7 +8693,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>596</v>
@@ -8737,7 +8729,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>596</v>
@@ -8773,7 +8765,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>596</v>
@@ -8809,7 +8801,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>596</v>
@@ -8845,7 +8837,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>596</v>
@@ -8881,7 +8873,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>596</v>
@@ -8917,7 +8909,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>596</v>
@@ -8953,7 +8945,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>596</v>
@@ -8989,7 +8981,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>596</v>
@@ -9025,7 +9017,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>596</v>
@@ -9061,7 +9053,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>599</v>
@@ -9097,7 +9089,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>599</v>
@@ -9133,7 +9125,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>599</v>
@@ -9169,7 +9161,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>599</v>
@@ -9205,7 +9197,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>599</v>
@@ -9241,7 +9233,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>599</v>
@@ -9277,13 +9269,13 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>599</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="4">
@@ -9313,7 +9305,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>599</v>
@@ -9349,7 +9341,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>599</v>
@@ -9385,7 +9377,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>599</v>
@@ -9421,7 +9413,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>599</v>
@@ -9457,7 +9449,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>599</v>
@@ -9493,7 +9485,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>599</v>
@@ -9529,7 +9521,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>599</v>
@@ -9565,7 +9557,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>599</v>
@@ -9601,13 +9593,13 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>599</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="1">
@@ -9637,7 +9629,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>599</v>
@@ -9673,7 +9665,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>599</v>
@@ -9709,13 +9701,13 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="B173" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B173" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="4">
@@ -9745,13 +9737,13 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="4">
@@ -9764,7 +9756,7 @@
         <v>190</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>262</v>
@@ -9781,13 +9773,13 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="B175" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="4">
@@ -9817,13 +9809,13 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="4">
@@ -9853,13 +9845,13 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="4">
@@ -9872,7 +9864,7 @@
         <v>190</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>262</v>
@@ -9889,13 +9881,13 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="4">
@@ -9924,10 +9916,10 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -9960,10 +9952,10 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -9996,10 +9988,10 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -10032,10 +10024,10 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -10068,10 +10060,10 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -10104,7 +10096,7 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
+      <c r="A184" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -10114,33 +10106,33 @@
         <v>731</v>
       </c>
       <c r="D184" s="2"/>
-      <c r="E184" s="5">
+      <c r="E184" s="4">
         <v>1416096</v>
       </c>
-      <c r="F184" s="10" t="s">
+      <c r="F184" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G184" s="10" t="s">
+      <c r="G184" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H184" s="10" t="s">
+      <c r="H184" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="I184" s="10" t="s">
+      <c r="I184" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J184" s="10" t="s">
+      <c r="J184" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="K184" s="10" t="s">
+      <c r="K184" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="L184" s="10" t="s">
+      <c r="L184" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -10150,33 +10142,33 @@
         <v>734</v>
       </c>
       <c r="D185" s="2"/>
-      <c r="E185" s="5">
+      <c r="E185" s="4">
         <v>7396</v>
       </c>
-      <c r="F185" s="10" t="s">
+      <c r="F185" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G185" s="10" t="s">
+      <c r="G185" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="H185" s="10" t="s">
+      <c r="H185" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="I185" s="10" t="s">
+      <c r="I185" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="J185" s="10" t="s">
+      <c r="J185" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="K185" s="10" t="s">
+      <c r="K185" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="L185" s="10" t="s">
+      <c r="L185" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -10186,33 +10178,33 @@
         <v>737</v>
       </c>
       <c r="D186" s="2"/>
-      <c r="E186" s="10">
+      <c r="E186" s="1">
         <v>722</v>
       </c>
-      <c r="F186" s="10" t="s">
+      <c r="F186" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G186" s="10" t="s">
+      <c r="G186" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="H186" s="10" t="s">
+      <c r="H186" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="I186" s="10" t="s">
+      <c r="I186" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J186" s="10" t="s">
+      <c r="J186" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="K186" s="10" t="s">
+      <c r="K186" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="L186" s="10" t="s">
+      <c r="L186" s="1" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -10222,33 +10214,33 @@
         <v>741</v>
       </c>
       <c r="D187" s="2"/>
-      <c r="E187" s="5">
+      <c r="E187" s="4">
         <v>26571</v>
       </c>
-      <c r="F187" s="10" t="s">
+      <c r="F187" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G187" s="10" t="s">
+      <c r="G187" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="H187" s="10" t="s">
+      <c r="H187" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="I187" s="10" t="s">
+      <c r="I187" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J187" s="10" t="s">
+      <c r="J187" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="K187" s="10" t="s">
+      <c r="K187" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L187" s="10" t="s">
+      <c r="L187" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -10258,33 +10250,33 @@
         <v>743</v>
       </c>
       <c r="D188" s="2"/>
-      <c r="E188" s="5">
+      <c r="E188" s="4">
         <v>51667</v>
       </c>
-      <c r="F188" s="10" t="s">
+      <c r="F188" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G188" s="10" t="s">
+      <c r="G188" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H188" s="10" t="s">
+      <c r="H188" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="I188" s="10" t="s">
+      <c r="I188" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="J188" s="10" t="s">
+      <c r="J188" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="K188" s="10" t="s">
+      <c r="K188" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="L188" s="10" t="s">
+      <c r="L188" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -10294,33 +10286,33 @@
         <v>748</v>
       </c>
       <c r="D189" s="2"/>
-      <c r="E189" s="5">
+      <c r="E189" s="4">
         <v>123104</v>
       </c>
-      <c r="F189" s="10" t="s">
+      <c r="F189" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G189" s="10" t="s">
+      <c r="G189" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H189" s="10" t="s">
+      <c r="H189" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="I189" s="10" t="s">
+      <c r="I189" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="J189" s="10" t="s">
+      <c r="J189" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="K189" s="10" t="s">
+      <c r="K189" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="L189" s="10" t="s">
+      <c r="L189" s="1" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -10330,33 +10322,33 @@
         <v>751</v>
       </c>
       <c r="D190" s="2"/>
-      <c r="E190" s="5">
+      <c r="E190" s="4">
         <v>3517</v>
       </c>
-      <c r="F190" s="10" t="s">
+      <c r="F190" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="G190" s="10" t="s">
+      <c r="G190" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H190" s="10" t="s">
+      <c r="H190" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="I190" s="10" t="s">
+      <c r="I190" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="J190" s="10" t="s">
+      <c r="J190" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="K190" s="10" t="s">
+      <c r="K190" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="L190" s="10" t="s">
+      <c r="L190" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -10366,33 +10358,33 @@
         <v>753</v>
       </c>
       <c r="D191" s="2"/>
-      <c r="E191" s="5">
+      <c r="E191" s="4">
         <v>23113</v>
       </c>
-      <c r="F191" s="10" t="s">
+      <c r="F191" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G191" s="10" t="s">
+      <c r="G191" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H191" s="10" t="s">
+      <c r="H191" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="I191" s="10" t="s">
+      <c r="I191" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J191" s="10" t="s">
+      <c r="J191" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="K191" s="10" t="s">
+      <c r="K191" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="L191" s="10" t="s">
+      <c r="L191" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -10402,33 +10394,33 @@
         <v>720</v>
       </c>
       <c r="D192" s="2"/>
-      <c r="E192" s="5">
+      <c r="E192" s="4">
         <v>1652186</v>
       </c>
-      <c r="F192" s="10" t="s">
+      <c r="F192" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G192" s="10" t="s">
+      <c r="G192" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H192" s="10" t="s">
+      <c r="H192" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="I192" s="10" t="s">
+      <c r="I192" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J192" s="10" t="s">
+      <c r="J192" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="K192" s="10" t="s">
+      <c r="K192" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="L192" s="10" t="s">
+      <c r="L192" s="1" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -10464,7 +10456,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -10500,7 +10492,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -10536,7 +10528,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -10572,7 +10564,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -10608,7 +10600,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -10644,7 +10636,7 @@
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -10680,7 +10672,7 @@
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -10716,7 +10708,7 @@
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -10752,7 +10744,7 @@
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -10788,7 +10780,7 @@
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -10824,7 +10816,7 @@
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -10860,7 +10852,7 @@
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -10896,7 +10888,7 @@
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -10932,7 +10924,7 @@
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -10968,7 +10960,7 @@
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -11004,7 +10996,7 @@
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -11040,7 +11032,7 @@
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
+      <c r="A210" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -11076,7 +11068,7 @@
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="s">
+      <c r="A211" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -11112,7 +11104,7 @@
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -11148,7 +11140,7 @@
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -11184,7 +11176,7 @@
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -11220,7 +11212,7 @@
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -11256,7 +11248,7 @@
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -11292,7 +11284,7 @@
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -11328,7 +11320,7 @@
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -11364,7 +11356,7 @@
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -11400,7 +11392,7 @@
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -11436,7 +11428,7 @@
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -11472,7 +11464,7 @@
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -11508,7 +11500,7 @@
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -11544,7 +11536,7 @@
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
+      <c r="A224" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -11580,7 +11572,7 @@
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -11616,7 +11608,7 @@
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -11652,7 +11644,7 @@
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -11662,33 +11654,33 @@
         <v>837</v>
       </c>
       <c r="D227" s="2"/>
-      <c r="E227" s="10">
+      <c r="E227" s="1">
         <v>466</v>
       </c>
-      <c r="F227" s="10" t="s">
+      <c r="F227" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G227" s="10" t="s">
+      <c r="G227" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H227" s="10" t="s">
+      <c r="H227" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="I227" s="10" t="s">
+      <c r="I227" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="J227" s="10" t="s">
+      <c r="J227" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K227" s="10" t="s">
+      <c r="K227" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="L227" s="10" t="s">
+      <c r="L227" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
+      <c r="A228" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -11698,33 +11690,33 @@
         <v>838</v>
       </c>
       <c r="D228" s="2"/>
-      <c r="E228" s="5">
+      <c r="E228" s="4">
         <v>17848</v>
       </c>
-      <c r="F228" s="10" t="s">
+      <c r="F228" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G228" s="10" t="s">
+      <c r="G228" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H228" s="10" t="s">
+      <c r="H228" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="I228" s="10" t="s">
+      <c r="I228" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J228" s="10" t="s">
+      <c r="J228" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="K228" s="10" t="s">
+      <c r="K228" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="L228" s="10" t="s">
+      <c r="L228" s="1" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -11734,33 +11726,33 @@
         <v>841</v>
       </c>
       <c r="D229" s="2"/>
-      <c r="E229" s="5">
+      <c r="E229" s="4">
         <v>285721</v>
       </c>
-      <c r="F229" s="10" t="s">
+      <c r="F229" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G229" s="10" t="s">
+      <c r="G229" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H229" s="10" t="s">
+      <c r="H229" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="I229" s="10" t="s">
+      <c r="I229" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J229" s="10" t="s">
+      <c r="J229" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="K229" s="10" t="s">
+      <c r="K229" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L229" s="10" t="s">
+      <c r="L229" s="1" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -11770,33 +11762,33 @@
         <v>844</v>
       </c>
       <c r="D230" s="2"/>
-      <c r="E230" s="5">
+      <c r="E230" s="4">
         <v>7873</v>
       </c>
-      <c r="F230" s="10" t="s">
+      <c r="F230" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G230" s="10" t="s">
+      <c r="G230" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H230" s="10" t="s">
+      <c r="H230" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="I230" s="10" t="s">
+      <c r="I230" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="J230" s="10" t="s">
+      <c r="J230" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="K230" s="10" t="s">
+      <c r="K230" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L230" s="10" t="s">
+      <c r="L230" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -11806,33 +11798,33 @@
         <v>848</v>
       </c>
       <c r="D231" s="2"/>
-      <c r="E231" s="5">
+      <c r="E231" s="4">
         <v>35978</v>
       </c>
-      <c r="F231" s="10" t="s">
+      <c r="F231" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="G231" s="10" t="s">
+      <c r="G231" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H231" s="10" t="s">
+      <c r="H231" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="I231" s="10" t="s">
+      <c r="I231" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="J231" s="10" t="s">
+      <c r="J231" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="K231" s="10" t="s">
+      <c r="K231" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="L231" s="10" t="s">
+      <c r="L231" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
+      <c r="A232" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -11842,33 +11834,33 @@
         <v>850</v>
       </c>
       <c r="D232" s="2"/>
-      <c r="E232" s="5">
+      <c r="E232" s="4">
         <v>54851</v>
       </c>
-      <c r="F232" s="10" t="s">
+      <c r="F232" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G232" s="10" t="s">
+      <c r="G232" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H232" s="10" t="s">
+      <c r="H232" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="I232" s="10" t="s">
+      <c r="I232" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="J232" s="10" t="s">
+      <c r="J232" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K232" s="10" t="s">
+      <c r="K232" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L232" s="10" t="s">
+      <c r="L232" s="1" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -11878,33 +11870,33 @@
         <v>852</v>
       </c>
       <c r="D233" s="2"/>
-      <c r="E233" s="5">
+      <c r="E233" s="4">
         <v>116787</v>
       </c>
-      <c r="F233" s="10" t="s">
+      <c r="F233" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G233" s="10" t="s">
+      <c r="G233" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H233" s="10" t="s">
+      <c r="H233" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I233" s="10" t="s">
+      <c r="I233" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="J233" s="10" t="s">
+      <c r="J233" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="K233" s="10" t="s">
+      <c r="K233" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L233" s="10" t="s">
+      <c r="L233" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -11914,33 +11906,33 @@
         <v>854</v>
       </c>
       <c r="D234" s="2"/>
-      <c r="E234" s="5">
+      <c r="E234" s="4">
         <v>5871</v>
       </c>
-      <c r="F234" s="10" t="s">
+      <c r="F234" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G234" s="10" t="s">
+      <c r="G234" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H234" s="10" t="s">
+      <c r="H234" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="I234" s="10" t="s">
+      <c r="I234" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="J234" s="10" t="s">
+      <c r="J234" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="K234" s="10" t="s">
+      <c r="K234" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L234" s="10" t="s">
+      <c r="L234" s="1" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -11950,33 +11942,33 @@
         <v>856</v>
       </c>
       <c r="D235" s="2"/>
-      <c r="E235" s="5">
+      <c r="E235" s="4">
         <v>71620</v>
       </c>
-      <c r="F235" s="10" t="s">
+      <c r="F235" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G235" s="10" t="s">
+      <c r="G235" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H235" s="10" t="s">
+      <c r="H235" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="I235" s="10" t="s">
+      <c r="I235" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J235" s="10" t="s">
+      <c r="J235" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="K235" s="10" t="s">
+      <c r="K235" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="L235" s="10" t="s">
+      <c r="L235" s="1" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="6" t="s">
+      <c r="A236" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -11986,33 +11978,33 @@
         <v>860</v>
       </c>
       <c r="D236" s="2"/>
-      <c r="E236" s="5">
+      <c r="E236" s="4">
         <v>1419</v>
       </c>
-      <c r="F236" s="10" t="s">
+      <c r="F236" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G236" s="10" t="s">
+      <c r="G236" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H236" s="10" t="s">
+      <c r="H236" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="I236" s="10" t="s">
+      <c r="I236" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="J236" s="10" t="s">
+      <c r="J236" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="K236" s="10" t="s">
+      <c r="K236" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L236" s="10" t="s">
+      <c r="L236" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -12022,33 +12014,33 @@
         <v>864</v>
       </c>
       <c r="D237" s="2"/>
-      <c r="E237" s="5">
+      <c r="E237" s="4">
         <v>101598</v>
       </c>
-      <c r="F237" s="10" t="s">
+      <c r="F237" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="G237" s="10" t="s">
+      <c r="G237" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H237" s="10" t="s">
+      <c r="H237" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I237" s="10" t="s">
+      <c r="I237" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="J237" s="10" t="s">
+      <c r="J237" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="K237" s="10" t="s">
+      <c r="K237" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="L237" s="10" t="s">
+      <c r="L237" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A238" s="6" t="s">
+      <c r="A238" s="5" t="s">
         <v>730</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -12058,321 +12050,321 @@
         <v>727</v>
       </c>
       <c r="D238" s="2"/>
-      <c r="E238" s="5">
+      <c r="E238" s="4">
         <v>700032</v>
       </c>
-      <c r="F238" s="10" t="s">
+      <c r="F238" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G238" s="10" t="s">
+      <c r="G238" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H238" s="10" t="s">
+      <c r="H238" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I238" s="10" t="s">
+      <c r="I238" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="J238" s="10" t="s">
+      <c r="J238" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="K238" s="10" t="s">
+      <c r="K238" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L238" s="10" t="s">
+      <c r="L238" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A239" s="6" t="s">
+      <c r="A239" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B239" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D239" s="2"/>
-      <c r="E239" s="5">
+      <c r="E239" s="4">
         <v>32226</v>
       </c>
-      <c r="F239" s="10" t="s">
+      <c r="F239" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G239" s="10" t="s">
+      <c r="G239" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H239" s="10" t="s">
+      <c r="H239" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="I239" s="10" t="s">
+      <c r="I239" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J239" s="10" t="s">
+      <c r="J239" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K239" s="10" t="s">
+      <c r="K239" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L239" s="10" t="s">
+      <c r="L239" s="1" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A240" s="6" t="s">
+      <c r="A240" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>867</v>
       </c>
       <c r="D240" s="2"/>
-      <c r="E240" s="5">
+      <c r="E240" s="4">
         <v>13165</v>
       </c>
-      <c r="F240" s="10" t="s">
+      <c r="F240" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G240" s="10" t="s">
+      <c r="G240" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H240" s="10" t="s">
+      <c r="H240" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="I240" s="10" t="s">
+      <c r="I240" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J240" s="10" t="s">
+      <c r="J240" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="K240" s="10" t="s">
+      <c r="K240" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="L240" s="10" t="s">
+      <c r="L240" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
+      <c r="A241" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B241" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>869</v>
       </c>
       <c r="D241" s="2"/>
-      <c r="E241" s="10">
+      <c r="E241" s="1">
         <v>529</v>
       </c>
-      <c r="F241" s="10" t="s">
+      <c r="F241" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="G241" s="10" t="s">
+      <c r="G241" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="H241" s="10" t="s">
+      <c r="H241" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I241" s="10" t="s">
+      <c r="I241" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="J241" s="10" t="s">
+      <c r="J241" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="K241" s="10" t="s">
+      <c r="K241" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L241" s="10" t="s">
+      <c r="L241" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
+      <c r="A242" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>872</v>
       </c>
       <c r="D242" s="2"/>
-      <c r="E242" s="10">
+      <c r="E242" s="1">
         <v>690</v>
       </c>
-      <c r="F242" s="10" t="s">
+      <c r="F242" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G242" s="10" t="s">
+      <c r="G242" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H242" s="10" t="s">
+      <c r="H242" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="I242" s="10" t="s">
+      <c r="I242" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J242" s="10" t="s">
+      <c r="J242" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="K242" s="10" t="s">
+      <c r="K242" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="L242" s="10" t="s">
+      <c r="L242" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="s">
+      <c r="A243" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="B243" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>875</v>
       </c>
       <c r="D243" s="2"/>
-      <c r="E243" s="5">
+      <c r="E243" s="4">
         <v>46610</v>
       </c>
-      <c r="F243" s="10" t="s">
+      <c r="F243" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G243" s="10" t="s">
+      <c r="G243" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H243" s="10" t="s">
+      <c r="H243" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I243" s="10" t="s">
+      <c r="I243" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J243" s="10" t="s">
+      <c r="J243" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K243" s="10" t="s">
+      <c r="K243" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L243" s="10" t="s">
+      <c r="L243" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
+      <c r="A244" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>876</v>
       </c>
       <c r="D244" s="2"/>
-      <c r="E244" s="5">
+      <c r="E244" s="4">
         <v>26974</v>
       </c>
-      <c r="F244" s="10" t="s">
+      <c r="F244" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G244" s="10" t="s">
+      <c r="G244" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H244" s="10" t="s">
+      <c r="H244" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I244" s="10" t="s">
+      <c r="I244" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J244" s="10" t="s">
+      <c r="J244" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K244" s="10" t="s">
+      <c r="K244" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L244" s="10" t="s">
+      <c r="L244" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="s">
+      <c r="A245" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>877</v>
       </c>
       <c r="D245" s="2"/>
-      <c r="E245" s="5">
+      <c r="E245" s="4">
         <v>5252</v>
       </c>
-      <c r="F245" s="10" t="s">
+      <c r="F245" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G245" s="10" t="s">
+      <c r="G245" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H245" s="10" t="s">
+      <c r="H245" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I245" s="10" t="s">
+      <c r="I245" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J245" s="10" t="s">
+      <c r="J245" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="K245" s="10" t="s">
+      <c r="K245" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="L245" s="10" t="s">
+      <c r="L245" s="1" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="6" t="s">
+      <c r="A246" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D246" s="2"/>
-      <c r="E246" s="5">
+      <c r="E246" s="4">
         <v>32226</v>
       </c>
-      <c r="F246" s="10" t="s">
+      <c r="F246" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G246" s="10" t="s">
+      <c r="G246" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H246" s="10" t="s">
+      <c r="H246" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="I246" s="10" t="s">
+      <c r="I246" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J246" s="10" t="s">
+      <c r="J246" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K246" s="10" t="s">
+      <c r="K246" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L246" s="10" t="s">
+      <c r="L246" s="1" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="6" t="s">
+      <c r="A247" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -12382,69 +12374,69 @@
         <v>879</v>
       </c>
       <c r="D247" s="2"/>
-      <c r="E247" s="10">
+      <c r="E247" s="1">
         <v>933</v>
       </c>
-      <c r="F247" s="10" t="s">
+      <c r="F247" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G247" s="10" t="s">
+      <c r="G247" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H247" s="10" t="s">
+      <c r="H247" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="I247" s="10" t="s">
+      <c r="I247" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J247" s="10" t="s">
+      <c r="J247" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K247" s="10" t="s">
+      <c r="K247" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="L247" s="10" t="s">
+      <c r="L247" s="1" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="s">
+      <c r="A248" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>867</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D248" s="2"/>
-      <c r="E248" s="10">
+      <c r="E248" s="1">
         <v>295</v>
       </c>
-      <c r="F248" s="10" t="s">
+      <c r="F248" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G248" s="10" t="s">
+      <c r="G248" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H248" s="10" t="s">
+      <c r="H248" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="I248" s="10" t="s">
+      <c r="I248" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J248" s="10" t="s">
+      <c r="J248" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="K248" s="10" t="s">
+      <c r="K248" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L248" s="10" t="s">
+      <c r="L248" s="1" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
+      <c r="A249" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -12454,33 +12446,33 @@
         <v>882</v>
       </c>
       <c r="D249" s="2"/>
-      <c r="E249" s="5">
+      <c r="E249" s="4">
         <v>10763</v>
       </c>
-      <c r="F249" s="10" t="s">
+      <c r="F249" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G249" s="10" t="s">
+      <c r="G249" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H249" s="10" t="s">
+      <c r="H249" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I249" s="10" t="s">
+      <c r="I249" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J249" s="10" t="s">
+      <c r="J249" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="K249" s="10" t="s">
+      <c r="K249" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="L249" s="10" t="s">
+      <c r="L249" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
+      <c r="A250" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -12490,33 +12482,33 @@
         <v>884</v>
       </c>
       <c r="D250" s="2"/>
-      <c r="E250" s="10">
+      <c r="E250" s="1">
         <v>839</v>
       </c>
-      <c r="F250" s="10" t="s">
+      <c r="F250" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G250" s="10" t="s">
+      <c r="G250" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H250" s="10" t="s">
+      <c r="H250" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="I250" s="10" t="s">
+      <c r="I250" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J250" s="10" t="s">
+      <c r="J250" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="K250" s="10" t="s">
+      <c r="K250" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L250" s="10" t="s">
+      <c r="L250" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
+      <c r="A251" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -12526,33 +12518,33 @@
         <v>887</v>
       </c>
       <c r="D251" s="2"/>
-      <c r="E251" s="10">
+      <c r="E251" s="1">
         <v>335</v>
       </c>
-      <c r="F251" s="10" t="s">
+      <c r="F251" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G251" s="10" t="s">
+      <c r="G251" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H251" s="10" t="s">
+      <c r="H251" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I251" s="10" t="s">
+      <c r="I251" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="J251" s="10" t="s">
+      <c r="J251" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K251" s="10" t="s">
+      <c r="K251" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="L251" s="10" t="s">
+      <c r="L251" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
+      <c r="A252" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -12562,33 +12554,33 @@
         <v>867</v>
       </c>
       <c r="D252" s="2"/>
-      <c r="E252" s="5">
+      <c r="E252" s="4">
         <v>13165</v>
       </c>
-      <c r="F252" s="10" t="s">
+      <c r="F252" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G252" s="10" t="s">
+      <c r="G252" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H252" s="10" t="s">
+      <c r="H252" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="I252" s="10" t="s">
+      <c r="I252" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J252" s="10" t="s">
+      <c r="J252" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="K252" s="10" t="s">
+      <c r="K252" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="L252" s="10" t="s">
+      <c r="L252" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
+      <c r="A253" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -12598,33 +12590,33 @@
         <v>889</v>
       </c>
       <c r="D253" s="2"/>
-      <c r="E253" s="10">
+      <c r="E253" s="1">
         <v>169</v>
       </c>
-      <c r="F253" s="10" t="s">
+      <c r="F253" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="G253" s="10" t="s">
+      <c r="G253" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H253" s="10" t="s">
+      <c r="H253" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="I253" s="10" t="s">
+      <c r="I253" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J253" s="10" t="s">
+      <c r="J253" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="K253" s="10" t="s">
+      <c r="K253" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L253" s="10" t="s">
+      <c r="L253" s="1" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
+      <c r="A254" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -12634,69 +12626,69 @@
         <v>890</v>
       </c>
       <c r="D254" s="2"/>
-      <c r="E254" s="10">
+      <c r="E254" s="1">
         <v>137</v>
       </c>
-      <c r="F254" s="10" t="s">
+      <c r="F254" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="G254" s="10" t="s">
+      <c r="G254" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H254" s="10" t="s">
+      <c r="H254" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I254" s="10" t="s">
+      <c r="I254" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="J254" s="10" t="s">
+      <c r="J254" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="K254" s="10" t="s">
+      <c r="K254" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="L254" s="10" t="s">
+      <c r="L254" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>869</v>
       </c>
       <c r="C255" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D255" s="2"/>
+      <c r="E255" s="1">
+        <v>114</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H255" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D255" s="2"/>
-      <c r="E255" s="10">
-        <v>114</v>
-      </c>
-      <c r="F255" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="G255" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H255" s="10" t="s">
-        <v>894</v>
-      </c>
-      <c r="I255" s="10" t="s">
+      <c r="I255" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J255" s="10" t="s">
+      <c r="J255" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="K255" s="10" t="s">
+      <c r="K255" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L255" s="10" t="s">
+      <c r="L255" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="6" t="s">
+      <c r="A256" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -12706,141 +12698,141 @@
         <v>869</v>
       </c>
       <c r="D256" s="2"/>
-      <c r="E256" s="10">
+      <c r="E256" s="1">
         <v>529</v>
       </c>
-      <c r="F256" s="10" t="s">
+      <c r="F256" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="G256" s="10" t="s">
+      <c r="G256" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="H256" s="10" t="s">
+      <c r="H256" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I256" s="10" t="s">
+      <c r="I256" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="J256" s="10" t="s">
+      <c r="J256" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="K256" s="10" t="s">
+      <c r="K256" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L256" s="10" t="s">
+      <c r="L256" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
+      <c r="A257" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>872</v>
       </c>
       <c r="C257" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D257" s="2"/>
+      <c r="E257" s="1">
+        <v>282</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H257" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="D257" s="2"/>
-      <c r="E257" s="10">
-        <v>282</v>
-      </c>
-      <c r="F257" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G257" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H257" s="10" t="s">
+      <c r="I257" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J257" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="I257" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="J257" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="K257" s="10" t="s">
+      <c r="K257" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L257" s="10" t="s">
+      <c r="L257" s="1" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
+      <c r="A258" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>872</v>
       </c>
       <c r="C258" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D258" s="2"/>
+      <c r="E258" s="1">
+        <v>219</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H258" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="D258" s="2"/>
-      <c r="E258" s="10">
-        <v>219</v>
-      </c>
-      <c r="F258" s="10" t="s">
-        <v>823</v>
-      </c>
-      <c r="G258" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H258" s="10" t="s">
+      <c r="I258" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="J258" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="I258" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="J258" s="10" t="s">
-        <v>900</v>
-      </c>
-      <c r="K258" s="10" t="s">
+      <c r="K258" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L258" s="10" t="s">
+      <c r="L258" s="1" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
+      <c r="A259" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>872</v>
       </c>
       <c r="C259" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="D259" s="2"/>
+      <c r="E259" s="1">
+        <v>104</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J259" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="D259" s="2"/>
-      <c r="E259" s="10">
-        <v>104</v>
-      </c>
-      <c r="F259" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="G259" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H259" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="I259" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J259" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="K259" s="10" t="s">
+      <c r="K259" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="L259" s="10" t="s">
+      <c r="L259" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="s">
+      <c r="A260" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -12850,28 +12842,28 @@
         <v>872</v>
       </c>
       <c r="D260" s="2"/>
-      <c r="E260" s="10">
+      <c r="E260" s="1">
         <v>690</v>
       </c>
-      <c r="F260" s="10" t="s">
+      <c r="F260" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G260" s="10" t="s">
+      <c r="G260" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H260" s="10" t="s">
+      <c r="H260" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="I260" s="10" t="s">
+      <c r="I260" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J260" s="10" t="s">
+      <c r="J260" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="K260" s="10" t="s">
+      <c r="K260" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="L260" s="10" t="s">
+      <c r="L260" s="1" t="s">
         <v>250</v>
       </c>
     </row>
